--- a/RoboticEnterpriseFramework/Data/Output/State_Covid_MLData.xlsx
+++ b/RoboticEnterpriseFramework/Data/Output/State_Covid_MLData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mannj\Documents\UiPath\RoboticEnterpriseFramework\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0180A-CE22-4226-B4BB-834C0D1EE6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F28A3-059A-48B6-91CB-496653ECE3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16665" yWindow="6765" windowWidth="15525" windowHeight="9420" xr2:uid="{F0E42BD7-B7E6-474C-A3EA-9340DB225D74}"/>
+    <workbookView xWindow="-16665" yWindow="6765" windowWidth="15525" windowHeight="9420" xr2:uid="{1CD675F1-B12E-46A6-A614-39A52AEE7AAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1410,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE7561A-785D-46D6-A94E-79FBE736555A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2683C6CB-A3D5-4BD0-8A3E-A9E304E36EDC}">
   <dimension ref="A1:BC283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
